--- a/natmiOut/OldD0/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.46626804870457</v>
+        <v>5.652167666666667</v>
       </c>
       <c r="H2">
-        <v>5.46626804870457</v>
+        <v>16.956503</v>
       </c>
       <c r="I2">
-        <v>0.181666329901699</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="J2">
-        <v>0.181666329901699</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.44850446913137</v>
+        <v>87.94215800000001</v>
       </c>
       <c r="N2">
-        <v>2.44850446913137</v>
+        <v>263.826474</v>
       </c>
       <c r="O2">
-        <v>0.1394711169812753</v>
+        <v>0.8507690866039653</v>
       </c>
       <c r="P2">
-        <v>0.1394711169812753</v>
+        <v>0.8507690866039652</v>
       </c>
       <c r="Q2">
-        <v>13.38418174672315</v>
+        <v>497.0638219844914</v>
       </c>
       <c r="R2">
-        <v>13.38418174672315</v>
+        <v>4473.574397860422</v>
       </c>
       <c r="S2">
-        <v>0.02533720594927882</v>
+        <v>0.1582710460220129</v>
       </c>
       <c r="T2">
-        <v>0.02533720594927882</v>
+        <v>0.1582710460220128</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.46626804870457</v>
+        <v>5.652167666666667</v>
       </c>
       <c r="H3">
-        <v>5.46626804870457</v>
+        <v>16.956503</v>
       </c>
       <c r="I3">
-        <v>0.181666329901699</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="J3">
-        <v>0.181666329901699</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.3901254032956</v>
+        <v>13.642319</v>
       </c>
       <c r="N3">
-        <v>13.3901254032956</v>
+        <v>40.926957</v>
       </c>
       <c r="O3">
-        <v>0.7627250715942182</v>
+        <v>0.1319783769098539</v>
       </c>
       <c r="P3">
-        <v>0.7627250715942182</v>
+        <v>0.1319783769098539</v>
       </c>
       <c r="Q3">
-        <v>73.19401466018213</v>
+        <v>77.10867435015234</v>
       </c>
       <c r="R3">
-        <v>73.19401466018213</v>
+        <v>693.9780691513711</v>
       </c>
       <c r="S3">
-        <v>0.1385614644805322</v>
+        <v>0.02455232106421564</v>
       </c>
       <c r="T3">
-        <v>0.1385614644805322</v>
+        <v>0.02455232106421564</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.46626804870457</v>
+        <v>5.652167666666667</v>
       </c>
       <c r="H4">
-        <v>5.46626804870457</v>
+        <v>16.956503</v>
       </c>
       <c r="I4">
-        <v>0.181666329901699</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="J4">
-        <v>0.181666329901699</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.71700832799049</v>
+        <v>1.783357333333333</v>
       </c>
       <c r="N4">
-        <v>1.71700832799049</v>
+        <v>5.350072</v>
       </c>
       <c r="O4">
-        <v>0.09780381142450638</v>
+        <v>0.01725253648618087</v>
       </c>
       <c r="P4">
-        <v>0.09780381142450638</v>
+        <v>0.01725253648618087</v>
       </c>
       <c r="Q4">
-        <v>9.385627762654071</v>
+        <v>10.07983465757956</v>
       </c>
       <c r="R4">
-        <v>9.385627762654071</v>
+        <v>90.71851191821601</v>
       </c>
       <c r="S4">
-        <v>0.01776765947188793</v>
+        <v>0.003209539508658567</v>
       </c>
       <c r="T4">
-        <v>0.01776765947188793</v>
+        <v>0.003209539508658567</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.3597668135241</v>
+        <v>16.407289</v>
       </c>
       <c r="H5">
-        <v>16.3597668135241</v>
+        <v>49.221867</v>
       </c>
       <c r="I5">
-        <v>0.5437016202973917</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="J5">
-        <v>0.5437016202973917</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.44850446913137</v>
+        <v>87.94215800000001</v>
       </c>
       <c r="N5">
-        <v>2.44850446913137</v>
+        <v>263.826474</v>
       </c>
       <c r="O5">
-        <v>0.1394711169812753</v>
+        <v>0.8507690866039653</v>
       </c>
       <c r="P5">
-        <v>0.1394711169812753</v>
+        <v>0.8507690866039652</v>
       </c>
       <c r="Q5">
-        <v>40.05696215686083</v>
+        <v>1442.892401589662</v>
       </c>
       <c r="R5">
-        <v>40.05696215686083</v>
+        <v>12986.03161430696</v>
       </c>
       <c r="S5">
-        <v>0.07583067228740646</v>
+        <v>0.4594341402379014</v>
       </c>
       <c r="T5">
-        <v>0.07583067228740646</v>
+        <v>0.4594341402379014</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.3597668135241</v>
+        <v>16.407289</v>
       </c>
       <c r="H6">
-        <v>16.3597668135241</v>
+        <v>49.221867</v>
       </c>
       <c r="I6">
-        <v>0.5437016202973917</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="J6">
-        <v>0.5437016202973917</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.3901254032956</v>
+        <v>13.642319</v>
       </c>
       <c r="N6">
-        <v>13.3901254032956</v>
+        <v>40.926957</v>
       </c>
       <c r="O6">
-        <v>0.7627250715942182</v>
+        <v>0.1319783769098539</v>
       </c>
       <c r="P6">
-        <v>0.7627250715942182</v>
+        <v>0.1319783769098539</v>
       </c>
       <c r="Q6">
-        <v>219.0593292017614</v>
+        <v>223.833470463191</v>
       </c>
       <c r="R6">
-        <v>219.0593292017614</v>
+        <v>2014.501234168719</v>
       </c>
       <c r="S6">
-        <v>0.4146948572672205</v>
+        <v>0.07127124513610623</v>
       </c>
       <c r="T6">
-        <v>0.4146948572672205</v>
+        <v>0.07127124513610623</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.3597668135241</v>
+        <v>16.407289</v>
       </c>
       <c r="H7">
-        <v>16.3597668135241</v>
+        <v>49.221867</v>
       </c>
       <c r="I7">
-        <v>0.5437016202973917</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="J7">
-        <v>0.5437016202973917</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.71700832799049</v>
+        <v>1.783357333333333</v>
       </c>
       <c r="N7">
-        <v>1.71700832799049</v>
+        <v>5.350072</v>
       </c>
       <c r="O7">
-        <v>0.09780381142450638</v>
+        <v>0.01725253648618087</v>
       </c>
       <c r="P7">
-        <v>0.09780381142450638</v>
+        <v>0.01725253648618087</v>
       </c>
       <c r="Q7">
-        <v>28.08985586280332</v>
+        <v>29.26005915826934</v>
       </c>
       <c r="R7">
-        <v>28.08985586280332</v>
+        <v>263.340532424424</v>
       </c>
       <c r="S7">
-        <v>0.05317609074276466</v>
+        <v>0.009316751621866686</v>
       </c>
       <c r="T7">
-        <v>0.05317609074276466</v>
+        <v>0.009316751621866686</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.263569808391409</v>
+        <v>8.323166333333333</v>
       </c>
       <c r="H8">
-        <v>8.263569808391409</v>
+        <v>24.969499</v>
       </c>
       <c r="I8">
-        <v>0.2746320498009094</v>
+        <v>0.2739449564092387</v>
       </c>
       <c r="J8">
-        <v>0.2746320498009094</v>
+        <v>0.2739449564092387</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.44850446913137</v>
+        <v>87.94215800000001</v>
       </c>
       <c r="N8">
-        <v>2.44850446913137</v>
+        <v>263.826474</v>
       </c>
       <c r="O8">
-        <v>0.1394711169812753</v>
+        <v>0.8507690866039653</v>
       </c>
       <c r="P8">
-        <v>0.1394711169812753</v>
+        <v>0.8507690866039652</v>
       </c>
       <c r="Q8">
-        <v>20.23338760682542</v>
+        <v>731.9572087462807</v>
       </c>
       <c r="R8">
-        <v>20.23338760682542</v>
+        <v>6587.614878716527</v>
       </c>
       <c r="S8">
-        <v>0.03830323874459007</v>
+        <v>0.2330639003440511</v>
       </c>
       <c r="T8">
-        <v>0.03830323874459007</v>
+        <v>0.2330639003440511</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.263569808391409</v>
+        <v>8.323166333333333</v>
       </c>
       <c r="H9">
-        <v>8.263569808391409</v>
+        <v>24.969499</v>
       </c>
       <c r="I9">
-        <v>0.2746320498009094</v>
+        <v>0.2739449564092387</v>
       </c>
       <c r="J9">
-        <v>0.2746320498009094</v>
+        <v>0.2739449564092387</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.3901254032956</v>
+        <v>13.642319</v>
       </c>
       <c r="N9">
-        <v>13.3901254032956</v>
+        <v>40.926957</v>
       </c>
       <c r="O9">
-        <v>0.7627250715942182</v>
+        <v>0.1319783769098539</v>
       </c>
       <c r="P9">
-        <v>0.7627250715942182</v>
+        <v>0.1319783769098539</v>
       </c>
       <c r="Q9">
-        <v>110.6502360132484</v>
+        <v>113.5472902093937</v>
       </c>
       <c r="R9">
-        <v>110.6502360132484</v>
+        <v>1021.925611884543</v>
       </c>
       <c r="S9">
-        <v>0.2094687498464655</v>
+        <v>0.03615481070953199</v>
       </c>
       <c r="T9">
-        <v>0.2094687498464655</v>
+        <v>0.036154810709532</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.263569808391409</v>
+        <v>8.323166333333333</v>
       </c>
       <c r="H10">
-        <v>8.263569808391409</v>
+        <v>24.969499</v>
       </c>
       <c r="I10">
-        <v>0.2746320498009094</v>
+        <v>0.2739449564092387</v>
       </c>
       <c r="J10">
-        <v>0.2746320498009094</v>
+        <v>0.2739449564092387</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.71700832799049</v>
+        <v>1.783357333333333</v>
       </c>
       <c r="N10">
-        <v>1.71700832799049</v>
+        <v>5.350072</v>
       </c>
       <c r="O10">
-        <v>0.09780381142450638</v>
+        <v>0.01725253648618087</v>
       </c>
       <c r="P10">
-        <v>0.09780381142450638</v>
+        <v>0.01725253648618087</v>
       </c>
       <c r="Q10">
-        <v>14.18861817993883</v>
+        <v>14.84317971710311</v>
       </c>
       <c r="R10">
-        <v>14.18861817993883</v>
+        <v>133.588617453928</v>
       </c>
       <c r="S10">
-        <v>0.02686006120985378</v>
+        <v>0.004726245355655618</v>
       </c>
       <c r="T10">
-        <v>0.02686006120985378</v>
+        <v>0.004726245355655619</v>
       </c>
     </row>
   </sheetData>
